--- a/tests/input/test_preguntas.xlsx
+++ b/tests/input/test_preguntas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/84684e170b099474/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\bc_pibot\tests\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E771A36-3C71-4AD4-AFCA-1B42EC50D12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3743C56-14FC-481A-AC4E-DDAF69726911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{90FA17E7-F7F6-4DE6-A1A5-397BDA50CAD2}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{90FA17E7-F7F6-4DE6-A1A5-397BDA50CAD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>cuál fue el último imacec</t>
   </si>
@@ -165,6 +165,174 @@
   </si>
   <si>
     <t>¿Cuánto varió/creció el actividad economica no minera desestacionalizado/con ajuste estacional?</t>
+  </si>
+  <si>
+    <t>¿Qué actividad impulsó la variación mensual de la economía el junio 2025 (puede incluir con ajuste estacional)?</t>
+  </si>
+  <si>
+    <t>¿Qué actividad explicó la variación/crecimiento mensual del junio 2025 (puede incluir con ajuste estacional)?</t>
+  </si>
+  <si>
+    <t>¿Qué actividades incidieron en la variación/crecimiento mensual del junio 2025 (puede incluir con ajuste estacional)?</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la/el demanda interna el último trimestre?</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la/el consumo el último trimestre?</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la/el consumo hogares el último trimestre?</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la/el inversión el último trimestre?</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la/el formación bruta de capital fijo el último trimestre?</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la/el exportaciones el último trimestre?</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la/el importaciones el último trimestre?</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la/el  consumo en el trimestre 2 2025</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la/el  consumo hogares en el trimestre 2 2025</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la/el  inversión en el trimestre 2 2025</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la/el  formación bruta de capital fijo en el trimestre 2 2025</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la/el  exportaciones en el trimestre 2 2025</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la/el  importaciones en el trimestre 2 2025</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la actividad Agropecuario-silvícola en el trimestre 2 2025</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la actividad Pesca en el trimestre 2 2025</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la actividad minería en el trimestre 2 2025</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la actividad Minería del cobre  en el trimestre 2 2025</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la actividad Otras actividades mineras en el trimestre 2 2025</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la actividad Industria Manufacturera en el trimestre 2 2025</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la actividad Electricidad en el trimestre 2 2025</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la actividad gas en el trimestre 2 2025</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la actividad agua y gestión de desechos en el trimestre 2 2025</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la actividad Construcción en el trimestre 2 2025</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la actividad Comercio en el trimestre 2 2025</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la actividad Restaurantes y hoteles en el trimestre 2 2025</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la actividad Transporte en el trimestre 2 2025</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la actividad Comunicaciones y servicios de información en el trimestre 2 2025</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la actividad Servicios financieros y empresariales en el trimestre 2 2025</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la actividad Servicios financieros en el trimestre 2 2025</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la actividad Servicios empresariales en el trimestre 2 2025</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la actividad Servicios de vivienda e inmobiliarios en el trimestre 2 2025</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la actividad Servicios personales y Administración pública en el trimestre 2 2025</t>
+  </si>
+  <si>
+    <t>¿Qué impulso a la demanda interna el trimestre 2 2025?</t>
+  </si>
+  <si>
+    <t>¿Qué impulso al PIB el trimestre 2 2025?</t>
+  </si>
+  <si>
+    <t>¿Qué actividades económicas impulsaron/contribuyeron/incidieron al PIB del trimestre 2 2025?</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la/el actividad Agropecuario-silvícola el último trimestre?</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la/el actividad Pesca el último trimestre?</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la/el actividad minería el último trimestre?</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la/el actividad Minería del cobre  el último trimestre?</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la/el actividad Otras actividades mineras el último trimestre?</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la/el actividad Industria Manufacturera el último trimestre?</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la/el actividad Electricidad el último trimestre?</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la/el actividad gas el último trimestre?</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la/el actividad agua y gestión de desechos el último trimestre?</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la/el actividad Construcción el último trimestre?</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la/el actividad Comercio el último trimestre?</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la/el actividad Restaurantes y hoteles el último trimestre?</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la/el actividad Transporte el último trimestre?</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la/el actividad Servicios de vivienda e inmobiliarios el último trimestre?</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la/el actividad Comunicaciones y servicios de información el último trimestre?</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la/el actividad Servicios financieros y empresariales el último trimestre?</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la/el actividad Servicios financieros el último trimestre?</t>
+  </si>
+  <si>
+    <t>¿Cuánto creció la/el actividad Servicios empresariales el último trimestre?</t>
   </si>
 </sst>
 </file>
@@ -200,8 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -537,227 +704,507 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B864D0B-6F07-47E4-9BBE-1270A81C7BE7}">
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:A99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection sqref="A1:A43"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
